--- a/Financials/Moodys.xlsx
+++ b/Financials/Moodys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0286637F-9B10-D041-B736-976CA04F6643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0544766F-6E18-BE48-9C43-FBE8208C35B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2696,13 +2696,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2719,7 +2716,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8399999999999999E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2731,9 +2728,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2860,38 +2854,35 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>363.19</v>
-    <v>251.98</v>
-    <v>1.2796000000000001</v>
-    <v>-4.17</v>
-    <v>-1.3269E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>261.70999999999998</v>
+    <v>1.2863</v>
+    <v>2.86</v>
+    <v>8.515E-3</v>
     <v>USD</v>
     <v>Moody's Corporation is a global integrated risk assessment company. The Company operates through two segments: Moody's Investors Service (MIS), and Moody's Analytics (MA). The MIS segment publishes credit ratings and provides assessment services on a range of debt obligations, programs and facilities, and the entities that issue such obligations in markets worldwide, including various corporate, financial institution and governmental obligations, and structured finance securities. The MIS segment consists of five lines of business, which include corporate finance group; structured finance group; financial institutions group; public, project and infrastructure finance, and MIS Other. The MA segment develops a range of products and services that support the risk management activities of institutional participants in global financial markets. The MA segment consists of three lines of business, such as decision solutions, research and insights, and data and information.</v>
-    <v>14635</v>
+    <v>15018</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>7 World Trade Ctr, NEW YORK, NY, 10007-2140 US</v>
-    <v>315.23</v>
+    <v>339.32</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45225.958333367969</v>
+    <v>45238.922571238283</v>
     <v>0</v>
-    <v>310</v>
-    <v>56901514999</v>
+    <v>334.78</v>
+    <v>61987590000</v>
     <v>MOODY'S CORPORATION</v>
     <v>MOODY'S CORPORATION</v>
-    <v>312.13</v>
-    <v>37.057899999999997</v>
-    <v>314.26</v>
-    <v>310.08999999999997</v>
-    <v>310.08999999999997</v>
-    <v>183500000</v>
+    <v>335.51</v>
+    <v>39.943399999999997</v>
+    <v>335.87</v>
+    <v>338.73</v>
+    <v>183000000</v>
     <v>MCO</v>
     <v>MOODY'S CORPORATION (XNYS:MCO)</v>
-    <v>832632</v>
-    <v>719264</v>
+    <v>533991</v>
+    <v>789993</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -2923,8 +2914,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2945,7 +2934,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2962,7 +2950,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2973,16 +2961,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3048,19 +3033,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3105,9 +3084,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3115,9 +3091,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3479,10 +3452,10 @@
   <dimension ref="A1:AJ119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA121" sqref="AA121"/>
+      <selection pane="bottomRight" activeCell="AD102" sqref="AD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5096,15 +5069,15 @@
       </c>
       <c r="AH16" s="33">
         <f>AI102/AA3</f>
-        <v>10.406275603328456</v>
+        <v>11.336428310168252</v>
       </c>
       <c r="AI16" s="33">
         <f>AI102/AA28</f>
-        <v>41.413038572780202</v>
+        <v>45.114694323144107</v>
       </c>
       <c r="AJ16" s="34">
         <f>AI102/AA107</f>
-        <v>38.603470148575305</v>
+        <v>42.053995929443694</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5388,15 +5361,15 @@
       </c>
       <c r="AH19" s="33">
         <f>AI102/AB3</f>
-        <v>9.5312420433835854</v>
+        <v>10.383180904522613</v>
       </c>
       <c r="AI19" s="33">
         <f>AI102/AB28</f>
-        <v>30.774210383450512</v>
+        <v>33.524926987560846</v>
       </c>
       <c r="AJ19" s="34">
         <f>AI102/AB107</f>
-        <v>29.916674552576236</v>
+        <v>32.590741324921133</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5725,11 +5698,11 @@
       </c>
       <c r="AI22" s="41">
         <f>(-1*AA98)/AI102</f>
-        <v>9.0507256267087222E-3</v>
+        <v>8.3081145758368731E-3</v>
       </c>
       <c r="AJ22" s="35">
         <f>AB107/AI102</f>
-        <v>3.3426175033009688E-2</v>
+        <v>3.0683561016003363E-2</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12103,7 +12076,7 @@
       </c>
       <c r="AI95" s="64">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8399999999999999E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12199,7 +12172,7 @@
       </c>
       <c r="AI96" s="65" cm="1">
         <f t="array" ref="AI96">_FV(A1,"Beta")</f>
-        <v>1.2796000000000001</v>
+        <v>1.2863</v>
       </c>
     </row>
     <row r="97" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12390,7 +12363,7 @@
       </c>
       <c r="AI98" s="63">
         <f>(AI95)+((AI96)*(AI97-AI95))</f>
-        <v>9.3953760000000011E-2</v>
+        <v>9.4962427000000016E-2</v>
       </c>
     </row>
     <row r="99" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -12675,7 +12648,7 @@
       </c>
       <c r="AI101" s="63">
         <f>AI100/AI104</f>
-        <v>0.1214090771794</v>
+        <v>0.11256884158029302</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12771,7 +12744,7 @@
       </c>
       <c r="AI102" s="53" cm="1">
         <f t="array" ref="AI102">_FV(A1,"Market cap",TRUE)</f>
-        <v>56901514999</v>
+        <v>61987590000</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12867,7 +12840,7 @@
       </c>
       <c r="AI103" s="63">
         <f>AI102/AI104</f>
-        <v>0.87859092282060003</v>
+        <v>0.88743115841970699</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12965,7 +12938,7 @@
       </c>
       <c r="AI104" s="66">
         <f>AI100+AI102</f>
-        <v>64764514999</v>
+        <v>69850590000</v>
       </c>
     </row>
     <row r="105" spans="1:35" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -13234,7 +13207,7 @@
       </c>
       <c r="AI106" s="68">
         <f>(AI101*AI93)+(AI103*AI98)</f>
-        <v>8.5331431632550289E-2</v>
+        <v>8.6854377182511003E-2</v>
       </c>
     </row>
     <row r="107" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -13352,7 +13325,7 @@
       <c r="AE108" s="46"/>
       <c r="AF108" s="50">
         <f>AF107*(1+AI108)/(AI109-AI108)</f>
-        <v>48063255280.611092</v>
+        <v>46879867393.117676</v>
       </c>
       <c r="AG108" s="51" t="s">
         <v>144</v>
@@ -13383,7 +13356,7 @@
       </c>
       <c r="AF109" s="50">
         <f>AF108+AF107</f>
-        <v>50892255280.611092</v>
+        <v>49708867393.117676</v>
       </c>
       <c r="AG109" s="51" t="s">
         <v>141</v>
@@ -13393,7 +13366,7 @@
       </c>
       <c r="AI109" s="39">
         <f>AI106</f>
-        <v>8.5331431632550289E-2</v>
+        <v>8.6854377182511003E-2</v>
       </c>
     </row>
     <row r="110" spans="1:35" ht="19" x14ac:dyDescent="0.2">
@@ -13414,7 +13387,7 @@
       </c>
       <c r="AC111" s="53">
         <f>NPV(AI109,AB109,AC109,AD109,AE109,AF109)</f>
-        <v>41230473370.656349</v>
+        <v>40187738039.276398</v>
       </c>
       <c r="AD111" s="45"/>
       <c r="AE111" s="45"/>
@@ -13459,7 +13432,7 @@
       </c>
       <c r="AC114" s="53">
         <f>AC111+AC112-AC113</f>
-        <v>35226473370.656349</v>
+        <v>34183738039.276398</v>
       </c>
       <c r="AD114" s="45"/>
       <c r="AE114" s="45"/>
@@ -13489,7 +13462,7 @@
       </c>
       <c r="AC116" s="55">
         <f>AC114/AC115</f>
-        <v>193.826920822689</v>
+        <v>188.08946943526854</v>
       </c>
       <c r="AD116" s="45"/>
       <c r="AE116" s="45"/>
@@ -13504,7 +13477,7 @@
       </c>
       <c r="AC117" s="56" cm="1">
         <f t="array" ref="AC117">_FV(A1,"Price")</f>
-        <v>310.08999999999997</v>
+        <v>338.73</v>
       </c>
       <c r="AD117" s="45"/>
       <c r="AE117" s="45"/>
@@ -13519,7 +13492,7 @@
       </c>
       <c r="AC118" s="57">
         <f>AC116/AC117-1</f>
-        <v>-0.3749333392799219</v>
+        <v>-0.4447215498028857</v>
       </c>
       <c r="AD118" s="45"/>
       <c r="AE118" s="45"/>
